--- a/summaries/allGenomes_90_5.pangolin.xlsx
+++ b/summaries/allGenomes_90_5.pangolin.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">taxon</t>
   </si>
@@ -23,6 +23,18 @@
     <t xml:space="preserve">probability</t>
   </si>
   <si>
+    <t xml:space="preserve">10-1017|Saliva_-_Positive_Control|20201211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161|Saliva_-_Positive_Control|20201211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.243</t>
+  </si>
+  <si>
     <t xml:space="preserve">197|ETA|20200330</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t xml:space="preserve">234|NP-OP-HI|20200424</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">235|NP-OP|20200424</t>
   </si>
   <si>
@@ -209,9 +218,6 @@
     <t xml:space="preserve">2748|Saliva|20201210</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
-  </si>
-  <si>
     <t xml:space="preserve">2749|Saliva|20201210</t>
   </si>
   <si>
@@ -263,6 +269,12 @@
     <t xml:space="preserve">3157|Saliva|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">95-267|Saliva_-_Positive_Control|20201211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97-736|Saliva_-_Positive_Control|20201211</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCLB|Vero_cells|20200328</t>
   </si>
   <si>
@@ -278,7 +290,16 @@
     <t xml:space="preserve">E6|Vero_cells|20200328</t>
   </si>
   <si>
+    <t xml:space="preserve">England_EPI_ISL_747519|simulated|20201211</t>
+  </si>
+  <si>
     <t xml:space="preserve">sdrop1_molpath|0.9%_Saline|20210108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SouthAfrica_HLS-UCT-GS-1396-KRISP|simulated|20201118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.351</t>
   </si>
 </sst>
 </file>
@@ -637,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,10 +666,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,10 +677,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,10 +688,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,10 +699,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,10 +710,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,10 +721,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -711,10 +732,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -722,10 +743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -733,10 +754,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -744,10 +765,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -755,10 +776,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -766,10 +787,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -777,10 +798,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -788,10 +809,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -799,10 +820,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -810,10 +831,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -821,10 +842,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -832,10 +853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -843,10 +864,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -854,10 +875,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -865,10 +886,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -876,10 +897,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -887,10 +908,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -898,10 +919,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -912,7 +933,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -923,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -931,10 +952,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -942,10 +963,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -956,7 +977,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -967,7 +988,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -975,10 +996,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -986,10 +1007,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -997,10 +1018,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -1008,10 +1029,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1019,10 +1040,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1030,10 +1051,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1041,10 +1062,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -1052,10 +1073,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -1066,7 +1087,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1077,7 +1098,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1085,10 +1106,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
         <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1099,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1110,7 +1131,7 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1118,10 +1139,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1129,10 +1150,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1140,10 +1161,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1151,10 +1172,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1162,10 +1183,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1173,10 +1194,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1184,10 +1205,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1195,10 +1216,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1209,7 +1230,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1217,10 +1238,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1228,7 +1249,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
         <v>69</v>
@@ -1239,10 +1260,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
         <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1253,7 +1274,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1264,7 +1285,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1275,7 +1296,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1286,7 +1307,7 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1294,10 +1315,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1305,10 +1326,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
         <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>79</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1316,10 +1337,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1327,10 +1348,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1338,10 +1359,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
         <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1349,10 +1370,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1360,10 +1381,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1371,12 +1392,78 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
         <v>88</v>
       </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="n">
         <v>1</v>
       </c>
     </row>
